--- a/List_animals_conditions.xlsx
+++ b/List_animals_conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsuni-my.sharepoint.com/personal/j_sanguinogomez_uva_nl/Documents/ELS_discovery_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Documents\Master Thesis Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E946E9BC-5ACE-4B86-97B5-FE6069FE798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C2F12F-FA40-407B-9869-1DAEEBA56031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C64DC369-C366-42B2-B3AD-393E14680C0E}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C64DC369-C366-42B2-B3AD-393E14680C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="62">
   <si>
     <t xml:space="preserve">♂ </t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>49.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELS </t>
   </si>
   <si>
     <t>50.5</t>
@@ -1686,19 +1683,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5E5F64-F0E1-410C-85CF-C001E48E7C80}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A52"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
@@ -1715,10 +1712,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -1736,10 +1733,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -1757,10 +1754,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -1778,10 +1775,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -1799,10 +1796,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1820,10 +1817,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
@@ -1841,10 +1838,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1862,10 +1859,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -1883,10 +1880,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
@@ -1904,10 +1901,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>36</v>
       </c>
@@ -1925,10 +1922,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1946,10 +1943,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1967,10 +1964,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
@@ -1988,10 +1985,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
@@ -2009,10 +2006,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -2030,10 +2027,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
@@ -2051,10 +2048,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A18" s="13" t="s">
         <v>39</v>
       </c>
@@ -2072,10 +2069,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
@@ -2093,10 +2090,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
         <v>40</v>
       </c>
@@ -2114,10 +2111,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
         <v>41</v>
       </c>
@@ -2135,10 +2132,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A22" s="13" t="s">
         <v>19</v>
       </c>
@@ -2156,10 +2153,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
@@ -2177,10 +2174,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
         <v>21</v>
       </c>
@@ -2198,10 +2195,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -2209,86 +2206,86 @@
         <v>0</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>ELS Vehicle</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>ELS  Vehicle</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A26" s="13" t="s">
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Control Vehicle</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Control Vehicle</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A27" s="13" t="s">
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Control Vehicle</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Control Vehicle</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A28" s="13" t="s">
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Control Vehicle</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Control Vehicle</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A29" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
@@ -2303,10 +2300,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
@@ -2324,12 +2321,12 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A31" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>0</v>
@@ -2345,10 +2342,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A32" s="13" t="s">
         <v>23</v>
       </c>
@@ -2366,10 +2363,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A33" s="13" t="s">
         <v>24</v>
       </c>
@@ -2387,34 +2384,34 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Control Vehicle</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Control Vehicle</v>
-      </c>
-      <c r="F34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A35" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="B35" s="5" t="s">
         <v>0</v>
       </c>
@@ -2429,10 +2426,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A36" s="13" t="s">
         <v>25</v>
       </c>
@@ -2450,12 +2447,12 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A37" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>0</v>
@@ -2471,10 +2468,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A38" s="13" t="s">
         <v>26</v>
       </c>
@@ -2492,76 +2489,76 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Control Vehicle</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Control Vehicle</v>
-      </c>
-      <c r="F39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A40" s="13" t="s">
+      <c r="B40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>ELS Vehicle</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>ELS Vehicle</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A41" s="13" t="s">
+      <c r="B41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Control Vehicle</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Control Vehicle</v>
-      </c>
-      <c r="F41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A42" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="B42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2576,10 +2573,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A43" s="13" t="s">
         <v>27</v>
       </c>
@@ -2597,34 +2594,34 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A44" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>ELS Vehicle</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>ELS Vehicle</v>
-      </c>
-      <c r="F44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A45" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="B45" s="5" t="s">
         <v>0</v>
       </c>
@@ -2639,10 +2636,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A46" s="14" t="s">
         <v>28</v>
       </c>
@@ -2660,12 +2657,12 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A47" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>0</v>
@@ -2681,10 +2678,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
         <v>29</v>
       </c>
@@ -2702,10 +2699,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A49" s="14" t="s">
         <v>30</v>
       </c>
@@ -2723,31 +2720,31 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A50" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Control Vehicle</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Control Vehicle</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
-      <c r="A51" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="B51" s="9" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2759,7 @@
         <v>ELS Vehicle</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="19.2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A52" s="17" t="s">
         <v>31</v>
       </c>
@@ -2793,18 +2790,18 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A34" sqref="A2:A34"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
@@ -2821,7 +2818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="28">
         <v>123.1</v>
       </c>
@@ -2839,10 +2836,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>123.3</v>
       </c>
@@ -2860,10 +2857,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>128.4</v>
       </c>
@@ -2881,10 +2878,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>129.1</v>
       </c>
@@ -2902,10 +2899,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>129.4</v>
       </c>
@@ -2923,10 +2920,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>133.30000000000001</v>
       </c>
@@ -2944,10 +2941,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>134.19999999999999</v>
       </c>
@@ -2965,10 +2962,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>134.4</v>
       </c>
@@ -2986,10 +2983,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="28">
         <v>136.19999999999999</v>
       </c>
@@ -3007,10 +3004,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>136.30000000000001</v>
       </c>
@@ -3028,10 +3025,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>136.5</v>
       </c>
@@ -3049,10 +3046,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>137.30000000000001</v>
       </c>
@@ -3070,10 +3067,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>137.5</v>
       </c>
@@ -3091,10 +3088,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>144.30000000000001</v>
       </c>
@@ -3112,10 +3109,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
         <v>144.5</v>
       </c>
@@ -3133,10 +3130,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>145.5</v>
       </c>
@@ -3154,10 +3151,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>146.6</v>
       </c>
@@ -3175,10 +3172,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>147.4</v>
       </c>
@@ -3196,10 +3193,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>148.4</v>
       </c>
@@ -3217,10 +3214,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
         <v>150.30000000000001</v>
       </c>
@@ -3238,10 +3235,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>150.5</v>
       </c>
@@ -3259,10 +3256,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>152.30000000000001</v>
       </c>
@@ -3280,10 +3277,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <v>152.5</v>
       </c>
@@ -3301,10 +3298,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A25" s="28">
         <v>153.4</v>
       </c>
@@ -3322,10 +3319,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>154.4</v>
       </c>
@@ -3343,10 +3340,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>157.1</v>
       </c>
@@ -3364,10 +3361,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>157.4</v>
       </c>
@@ -3385,10 +3382,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>158.5</v>
       </c>
@@ -3406,10 +3403,10 @@
         <v>Control Vehicle</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="28">
         <v>159.30000000000001</v>
       </c>
@@ -3427,10 +3424,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="28">
         <v>159.4</v>
       </c>
@@ -3448,10 +3445,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="28">
         <v>159.5</v>
       </c>
@@ -3469,10 +3466,10 @@
         <v>ELS Vehicle</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="28">
         <v>161.1</v>
       </c>
@@ -3490,7 +3487,7 @@
         <v>Control Vehicle</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="32">
         <v>161.30000000000001</v>
       </c>
@@ -3525,15 +3522,15 @@
       <selection activeCell="A15" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="29">
         <v>192.2</v>
       </c>
@@ -3568,7 +3565,7 @@
         <v>ELS Vehicle</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>192.3</v>
       </c>
@@ -3586,7 +3583,7 @@
         <v>ELS Vehicle</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
         <v>193.1</v>
       </c>
@@ -3604,7 +3601,7 @@
         <v>ELS Vehicle</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>194.1</v>
       </c>
@@ -3622,7 +3619,7 @@
         <v>Control Vehicle</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>194.2</v>
       </c>
@@ -3640,7 +3637,7 @@
         <v>Control Vehicle</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>195.1</v>
       </c>
@@ -3658,7 +3655,7 @@
         <v>Control Vehicle</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>195.3</v>
       </c>
@@ -3676,7 +3673,7 @@
         <v>Control Vehicle</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>195.4</v>
       </c>
@@ -3694,7 +3691,7 @@
         <v>Control Vehicle</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>197.1</v>
       </c>
@@ -3712,7 +3709,7 @@
         <v>Control Vehicle</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>200.1</v>
       </c>
@@ -3730,7 +3727,7 @@
         <v>Control Vehicle</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>201.1</v>
       </c>
@@ -3748,7 +3745,7 @@
         <v>ELS Vehicle</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>203.2</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>ELS Vehicle</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>203.3</v>
       </c>
@@ -3784,7 +3781,7 @@
         <v>ELS Vehicle</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>204.4</v>
       </c>
